--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cd44</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>6.178707887775333</v>
+        <v>30.04731975431756</v>
       </c>
       <c r="R2">
-        <v>55.608370989978</v>
+        <v>270.425877788858</v>
       </c>
       <c r="S2">
-        <v>0.001116054714278602</v>
+        <v>0.005793624217329497</v>
       </c>
       <c r="T2">
-        <v>0.001116054714278602</v>
+        <v>0.005793624217329496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>98.94610758084468</v>
+        <v>115.0961310253932</v>
       </c>
       <c r="R3">
-        <v>890.514968227602</v>
+        <v>1035.865179228539</v>
       </c>
       <c r="S3">
-        <v>0.01787255067416366</v>
+        <v>0.02219245302016763</v>
       </c>
       <c r="T3">
-        <v>0.01787255067416366</v>
+        <v>0.02219245302016763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>134.444940793084</v>
+        <v>313.7376377498807</v>
       </c>
       <c r="R4">
-        <v>1210.004467137756</v>
+        <v>2823.638739748926</v>
       </c>
       <c r="S4">
-        <v>0.02428467451583217</v>
+        <v>0.0604938473986277</v>
       </c>
       <c r="T4">
-        <v>0.02428467451583217</v>
+        <v>0.06049384739862769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H5">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>32.80535011699401</v>
+        <v>78.1262305586388</v>
       </c>
       <c r="R5">
-        <v>295.248151052946</v>
+        <v>703.136075027749</v>
       </c>
       <c r="S5">
-        <v>0.005925602296892809</v>
+        <v>0.01506403982365707</v>
       </c>
       <c r="T5">
-        <v>0.005925602296892808</v>
+        <v>0.01506403982365707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H6">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>393.4644884655273</v>
+        <v>515.6996343059917</v>
       </c>
       <c r="R6">
-        <v>3541.180396189746</v>
+        <v>4641.296708753925</v>
       </c>
       <c r="S6">
-        <v>0.071071153585686</v>
+        <v>0.09943548757801735</v>
       </c>
       <c r="T6">
-        <v>0.071071153585686</v>
+        <v>0.09943548757801735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H7">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>87.45386429201265</v>
+        <v>156.1331437072037</v>
       </c>
       <c r="R7">
-        <v>787.0847786281139</v>
+        <v>1405.198293364833</v>
       </c>
       <c r="S7">
-        <v>0.01579671661094246</v>
+        <v>0.03010507326131348</v>
       </c>
       <c r="T7">
-        <v>0.01579671661094246</v>
+        <v>0.03010507326131348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>4.894123078160445</v>
+        <v>20.46072184252356</v>
       </c>
       <c r="R8">
-        <v>44.04710770344401</v>
+        <v>184.146496582712</v>
       </c>
       <c r="S8">
-        <v>0.000884021260245614</v>
+        <v>0.00394516830586374</v>
       </c>
       <c r="T8">
-        <v>0.000884021260245614</v>
+        <v>0.003945168305863739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>78.37470833726624</v>
@@ -1013,10 +1013,10 @@
         <v>705.3723750353961</v>
       </c>
       <c r="S9">
-        <v>0.01415675644629163</v>
+        <v>0.01511195048216156</v>
       </c>
       <c r="T9">
-        <v>0.01415675644629163</v>
+        <v>0.01511195048216155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>106.4931534923653</v>
+        <v>213.6396387437627</v>
       </c>
       <c r="R10">
-        <v>958.4383814312879</v>
+        <v>1922.756748693864</v>
       </c>
       <c r="S10">
-        <v>0.01923576711381677</v>
+        <v>0.04119328429050762</v>
       </c>
       <c r="T10">
-        <v>0.01923576711381677</v>
+        <v>0.04119328429050761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>25.98495090087867</v>
+        <v>53.20005528398179</v>
       </c>
       <c r="R11">
-        <v>233.864558107908</v>
+        <v>478.800497555836</v>
       </c>
       <c r="S11">
-        <v>0.004693639427525263</v>
+        <v>0.01025785764509848</v>
       </c>
       <c r="T11">
-        <v>0.004693639427525262</v>
+        <v>0.01025785764509848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>311.6612192082565</v>
+        <v>351.1656566409667</v>
       </c>
       <c r="R12">
-        <v>2804.950972874308</v>
+        <v>3160.4909097687</v>
       </c>
       <c r="S12">
-        <v>0.05629509911665838</v>
+        <v>0.06771059346540136</v>
       </c>
       <c r="T12">
-        <v>0.05629509911665838</v>
+        <v>0.06771059346540134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>69.27176090533023</v>
+        <v>106.3188613797347</v>
       </c>
       <c r="R13">
-        <v>623.445848147972</v>
+        <v>956.8697524176121</v>
       </c>
       <c r="S13">
-        <v>0.01251249884749125</v>
+        <v>0.02050004909206647</v>
       </c>
       <c r="T13">
-        <v>0.01251249884749125</v>
+        <v>0.02050004909206647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H14">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>0.2375946250435556</v>
+        <v>76.85491512120178</v>
       </c>
       <c r="R14">
-        <v>2.138351625392</v>
+        <v>691.6942360908159</v>
       </c>
       <c r="S14">
-        <v>4.291651364385699E-05</v>
+        <v>0.01481890901111125</v>
       </c>
       <c r="T14">
-        <v>4.291651364385699E-05</v>
+        <v>0.01481890901111125</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H15">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>3.804851071969778</v>
+        <v>294.3924267809031</v>
       </c>
       <c r="R15">
-        <v>34.243659647728</v>
+        <v>2649.531841028128</v>
       </c>
       <c r="S15">
-        <v>0.0006872669906278418</v>
+        <v>0.05676376818771532</v>
       </c>
       <c r="T15">
-        <v>0.0006872669906278418</v>
+        <v>0.05676376818771531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H16">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>5.169915114442666</v>
+        <v>802.4768836870613</v>
       </c>
       <c r="R16">
-        <v>46.52923602998399</v>
+        <v>7222.291953183551</v>
       </c>
       <c r="S16">
-        <v>0.000933837339568971</v>
+        <v>0.1547309225977936</v>
       </c>
       <c r="T16">
-        <v>0.000933837339568971</v>
+        <v>0.1547309225977936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H17">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>1.261489457349333</v>
+        <v>199.8309622095609</v>
       </c>
       <c r="R17">
-        <v>11.353405116144</v>
+        <v>1798.478659886048</v>
       </c>
       <c r="S17">
-        <v>0.0002278617603322877</v>
+        <v>0.03853074122736717</v>
       </c>
       <c r="T17">
-        <v>0.0002278617603322877</v>
+        <v>0.03853074122736717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H18">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>15.13019377237156</v>
+        <v>1319.054476295733</v>
       </c>
       <c r="R18">
-        <v>136.171743951344</v>
+        <v>11871.4902866616</v>
       </c>
       <c r="S18">
-        <v>0.00273295394349577</v>
+        <v>0.2543356951744665</v>
       </c>
       <c r="T18">
-        <v>0.00273295394349577</v>
+        <v>0.2543356951744665</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H19">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>3.362930967521777</v>
+        <v>399.3567348215573</v>
       </c>
       <c r="R19">
-        <v>30.266378707696</v>
+        <v>3594.210613394016</v>
       </c>
       <c r="S19">
-        <v>0.0006074433406249826</v>
+        <v>0.07700263681200202</v>
       </c>
       <c r="T19">
-        <v>0.0006074433406249826</v>
+        <v>0.07700263681200201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H20">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>33.01449385163934</v>
+        <v>0.6735726534051111</v>
       </c>
       <c r="R20">
-        <v>297.130444664754</v>
+        <v>6.062153880646</v>
       </c>
       <c r="S20">
-        <v>0.005963379750569584</v>
+        <v>0.0001298760378232402</v>
       </c>
       <c r="T20">
-        <v>0.005963379750569584</v>
+        <v>0.0001298760378232402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H21">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>528.6955978020208</v>
+        <v>2.580117195321445</v>
       </c>
       <c r="R21">
-        <v>4758.260380218187</v>
+        <v>23.221054757893</v>
       </c>
       <c r="S21">
-        <v>0.09549783305223378</v>
+        <v>0.0004974896126705158</v>
       </c>
       <c r="T21">
-        <v>0.09549783305223378</v>
+        <v>0.0004974896126705158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H22">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>718.3753871872119</v>
+        <v>7.033076322951334</v>
       </c>
       <c r="R22">
-        <v>6465.378484684907</v>
+        <v>63.29768690656201</v>
       </c>
       <c r="S22">
-        <v>0.1297595309657332</v>
+        <v>0.00135609437514381</v>
       </c>
       <c r="T22">
-        <v>0.1297595309657332</v>
+        <v>0.00135609437514381</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H23">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>175.287786606842</v>
+        <v>1.751360615462556</v>
       </c>
       <c r="R23">
-        <v>1577.590079461578</v>
+        <v>15.762245539163</v>
       </c>
       <c r="S23">
-        <v>0.03166208277706185</v>
+        <v>0.0003376915264983977</v>
       </c>
       <c r="T23">
-        <v>0.03166208277706185</v>
+        <v>0.0003376915264983977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H24">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>2102.386319473776</v>
+        <v>11.56047107960833</v>
       </c>
       <c r="R24">
-        <v>18921.47687526398</v>
+        <v>104.044239716475</v>
       </c>
       <c r="S24">
-        <v>0.3797522403876529</v>
+        <v>0.002229051567933345</v>
       </c>
       <c r="T24">
-        <v>0.3797522403876529</v>
+        <v>0.002229051567933345</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H25">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>467.2894588014447</v>
+        <v>3.500046485052333</v>
       </c>
       <c r="R25">
-        <v>4205.605129213001</v>
+        <v>31.500418365471</v>
       </c>
       <c r="S25">
-        <v>0.08440609475322261</v>
+        <v>0.0006748673173973996</v>
       </c>
       <c r="T25">
-        <v>0.08440609475322261</v>
+        <v>0.0006748673173973996</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H26">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>1.084468074117778</v>
+        <v>0.8751592778024445</v>
       </c>
       <c r="R26">
-        <v>9.760212667060001</v>
+        <v>7.876433500222</v>
       </c>
       <c r="S26">
-        <v>0.0001958865394815686</v>
+        <v>0.0001687452999919658</v>
       </c>
       <c r="T26">
-        <v>0.0001958865394815686</v>
+        <v>0.0001687452999919657</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H27">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>17.36672078994889</v>
+        <v>3.352293906066778</v>
       </c>
       <c r="R27">
-        <v>156.30048710954</v>
+        <v>30.170645154601</v>
       </c>
       <c r="S27">
-        <v>0.003136935903302802</v>
+        <v>0.0006463781567407124</v>
       </c>
       <c r="T27">
-        <v>0.003136935903302802</v>
+        <v>0.0006463781567407124</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H28">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>23.59736836001333</v>
+        <v>9.137933323759334</v>
       </c>
       <c r="R28">
-        <v>212.37631524012</v>
+        <v>82.241399913834</v>
       </c>
       <c r="S28">
-        <v>0.004262372437911764</v>
+        <v>0.001761945898461276</v>
       </c>
       <c r="T28">
-        <v>0.004262372437911764</v>
+        <v>0.001761945898461276</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H29">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>5.757895584046667</v>
+        <v>2.275507302221222</v>
       </c>
       <c r="R29">
-        <v>51.82106025642</v>
+        <v>20.479565719991</v>
       </c>
       <c r="S29">
-        <v>0.001040043748242802</v>
+        <v>0.0004387557466241104</v>
       </c>
       <c r="T29">
-        <v>0.001040043748242802</v>
+        <v>0.0004387557466241104</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H30">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>69.05969399915779</v>
+        <v>15.02028544350833</v>
       </c>
       <c r="R30">
-        <v>621.53724599242</v>
+        <v>135.182568991575</v>
       </c>
       <c r="S30">
-        <v>0.01247419338384495</v>
+        <v>0.002896161461596163</v>
       </c>
       <c r="T30">
-        <v>0.01247419338384495</v>
+        <v>0.002896161461596163</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H31">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>15.34963709330889</v>
+        <v>4.547539361416333</v>
       </c>
       <c r="R31">
-        <v>138.14673383978</v>
+        <v>40.927854252747</v>
       </c>
       <c r="S31">
-        <v>0.002772591802623828</v>
+        <v>0.0008768414084512469</v>
       </c>
       <c r="T31">
-        <v>0.002772591802623828</v>
+        <v>0.0008768414084512469</v>
       </c>
     </row>
   </sheetData>
